--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -203,7 +203,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>6.666666666666667</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -23,13 +23,13 @@
     <t>Imprimante</t>
   </si>
   <si>
+    <t>res</t>
+  </si>
+  <si>
     <t>Chargeur</t>
   </si>
   <si>
     <t>Microphone</t>
-  </si>
-  <si>
-    <t>Routeur</t>
   </si>
   <si>
     <t>Écran</t>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>0.0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="8">
@@ -195,7 +195,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>3.3333333333333335</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -203,7 +203,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -211,7 +211,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>0.0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
   </sheetData>
